--- a/data/reporte_fenomenos_20260121.xlsx
+++ b/data/reporte_fenomenos_20260121.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Analisis" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Glosario" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Marco Teorico" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Glosario" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +435,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="45" customWidth="1" min="5" max="5"/>
-    <col width="60" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="60" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,35 +458,45 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>evidencia_xai</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>auditoria_estado</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>indice_total</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>elaboracion_indice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>origen</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>destino</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>mecanismo</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>detalle</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -493,7 +505,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,44 +518,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PROCEDIMIENTOS ADMINISTRATIVOSDecreto 25/2026DECTO-2026-25-APN-PTE - Recházase recurso.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337566/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DIRECCIÓN NACIONAL DE VIALIDADResolución 69/2026RESOL-2026-69-APN-DNV#MEC</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337599/20260121</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -556,44 +578,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PRESUPUESTODecisión Administrativa 1/2026DA-2026-1-APN-JGM - Presupuesto General de la Administración Nacional para el Ejercicio 2026. Distributivo.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337567/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL REGULADOR DEL GASResolución 15/2026RESOL-2026-15-APN-DIRECTORIO#ENARGAS</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337600/20260121</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -606,44 +638,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ADMINISTRACIÓN NACIONAL DE AVIACIÓN CIVILResolución 35/2026RESOL-2026-35-APN-ANAC#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337568/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE CAPITAL HUMANO - SECRETARÍA DE TRABAJO, EMPLEO Y SEGURIDAD SOCIALResolución 79/2026RESOL-2026-79-APN-STEYSS#MCH</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337601/20260121</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,44 +698,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - DIRECCIÓN GENERAL DE ADUANASResolución 8/2026RESOL-2026-8-E-ARCA-DGADUA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337569/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE ECONOMÍA - SECRETARÍA DE INDUSTRIA Y COMERCIOResolución 20/2026RESOL-2026-20-APN-SIYC#MEC</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337602/20260121</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -706,44 +758,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>INSTITUTO NACIONAL DE CINE Y ARTES AUDIOVISUALESResolución 9/2026RESOL-2026-9-APN-INCAA#SC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337570/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE ECONOMÍA - SECRETARÍA DE OBRAS PÚBLICASResolución 9/2026RESOL-2026-9-APN-SOP#MEC</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337603/20260121</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -756,44 +818,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>INSTITUTO NACIONAL DE LA YERBA MATEResolución 2/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337571/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE ECONOMÍA - SECRETARÍA DE OBRAS PÚBLICASResolución 11/2026RESOL-2026-11-APN-SOP#MEC</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337604/20260121</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -806,44 +878,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>JEFATURA DE GABINETE DE MINISTROS - SECRETARÍA DE COORDINACIÓN LEGAL Y ADMINISTRATIVAResolución 6/2026RESOL-2026-6-APN-SCLYA#JGM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337572/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE SEGURIDAD NACIONALResolución 47/2026RESOL-2026-47-APN-MSG</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337605/20260121</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -856,44 +938,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>MINISTERIO DE ECONOMÍA - SECRETARÍA DE ENERGÍAResolución 15/2026RESOL-2026-15-APN-SE#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337573/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANEROResolución General 5816/2026RESOG-2026-5816-E-ARCA-ARCA - Procedimiento. Sociedades de Garantía Recíproca (S.G.R.). Socios Protectores. Régimen de información. Resolución General...</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337606/20260121</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -906,44 +998,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>⚠️ REVISAR: Posible pago</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>MINISTERIO DE ECONOMÍA - SECRETARÍA DE INDUSTRIA Y COMERCIOResolución 19/2026RESOL-2026-19-APN-SIYC#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337574/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANEROResolución General 5817/2026RESOG-2026-5817-E-ARCA-ARCA - Seguridad Social. Decreto N° 394/23 y sus modificatorios. Beneficio a Microempresas. Pago a cuenta de contribuciones pat...</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337607/20260121</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -956,44 +1058,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>MINISTERIO DE SALUDResolución 238/2026RESOL-2026-238-APN-MS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337575/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>AGENCIA DE PLANIFICACIÓNResolución Sintetizada 1/2026</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337608/20260121</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1006,44 +1118,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>MINISTERIO DE SEGURIDAD NACIONALResolución 40/2026RESOL-2026-40-APN-MSG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337576/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL REGULADOR DE LA ELECTRICIDADResolución Sintetizada 13/2026</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337609/20260121</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1056,44 +1178,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>MINISTERIO DE SEGURIDAD NACIONAL Y MINISTERIO DE RELACIONES EXTERIORES, COMERCIO INTERNACIONAL Y CULTOResolución Conjunta 1/2026RESFC-2026-1-APN-MSG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337577/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ADMINISTRACIÓN NACIONAL DE MEDICAMENTOS, ALIMENTOS Y TECNOLOGÍA MÉDICADisposición 63/2026DI-2026-63-APN-ANMAT#MS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337610/20260121</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1103,47 +1235,57 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tarifas Servicios Públicos</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Legal(30) + Discrec(30) + Certeza Muy Alta(40) = 100%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Usuarios / Población</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Empresas Concesionarias</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aumento de tarifa o subsidio cruzado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ENTE REGULADOR DE AGUA Y SANEAMIENTOResolución Sintetizada 1/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337578/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ADMINISTRACIÓN NACIONAL DE MEDICAMENTOS, ALIMENTOS Y TECNOLOGÍA MÉDICADisposición 66/2026DI-2026-66-APN-ANMAT#MS</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337611/20260121</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1156,44 +1298,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>SUPERINTENDENCIA DE SEGUROS DE LA NACIÓNResolución Sintetizada 14/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337579/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ADMINISTRACIÓN NACIONAL DE MEDICAMENTOS, ALIMENTOS Y TECNOLOGÍA MÉDICADisposición 68/2026DI-2026-68-APN-ANMAT#MS</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337612/20260121</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1206,44 +1358,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ADMINISTRACIÓN NACIONAL DE MEDICAMENTOS, ALIMENTOS Y TECNOLOGÍA MÉDICADisposición 47/2026DI-2026-47-APN-ANMAT#MS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337580/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERODisposición 5/2026DI-2026-5-E-ARCA-ARCA</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337613/20260121</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1256,44 +1418,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ADMINISTRACIÓN NACIONAL DE MEDICAMENTOS, ALIMENTOS Y TECNOLOGÍA MÉDICADisposición 72/2026DI-2026-72-APN-ANMAT#MS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337581/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - ADUANA OBERÁDisposición 6/2026DI-2026-6-E-ARCA-ADOBER#SDGOAI</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337614/20260121</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1306,44 +1478,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - DIRECCIÓN REGIONAL SALTADisposición 3/2026DI-2026-3-E-ARCA-DIRSAL#SDGOPII</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337582/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 235/2026</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337615/20260121</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1356,44 +1538,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>AGENCIA NACIONAL DE SEGURIDAD VIALDisposición 10/2026DI-2026-10-APN-ANSV#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337583/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1328/2026</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337616/20260121</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1406,44 +1598,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>AGENCIA NACIONAL DE SEGURIDAD VIALDisposición 11/2026DI-2026-11-APN-ANSV#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337584/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1359/2026</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337617/20260121</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1456,44 +1658,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>MINISTERIO DE ECONOMÍA - SUBSECRETARÍA DE TRANSICIÓN Y PLANEAMIENTO ENERGÉTICODisposición 1/2026DI-2026-1-APN-SSTYPE#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337585/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1814/2026</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337618/20260121</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1506,44 +1718,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>MINISTERIO DE ECONOMÍA - SUBSECRETARÍA DE TRANSICIÓN Y PLANEAMIENTO ENERGÉTICODisposición 2/2026DI-2026-2-APN-SSTYPE#MEC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337586/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BANCO DE LA NACIÓN ARGENTINAAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337619/20260121</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1556,44 +1778,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>PREFECTURA NAVAL ARGENTINADisposición 39/2026DISFC-2026-39-APN-PNA#MSG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337587/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINAComunicación "B" 13110/2026</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337620/20260121</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1606,44 +1838,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1326/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337588/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - DIRECCIÓN ADUANA DE BUENOS AIRESAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337621/20260121</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1656,44 +1898,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1329/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337589/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337622/20260121</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1706,44 +1958,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ENTE NACIONAL DE COMUNICACIONESDisposición Sintetizada 1489/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337590/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337623/20260121</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1756,44 +2018,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>BANCO DE LA NACIÓN ARGENTINAAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337591/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337624/20260121</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1806,44 +2078,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINAAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337592/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337625/20260121</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1856,44 +2138,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337593/20260120</t>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337626/20260121</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1906,44 +2198,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>INSTITUTO NACIONAL DE SEMILLASAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337594/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINAAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337627/20260121</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1956,44 +2258,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>0</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>MINISTERIO DE ECONOMÍA - SUBSECRETARÍA DE ENERGÍA ELÉCTRICAAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337595/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINAAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337628/20260121</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2006,49 +2318,59 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANEROAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337596/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ASOCIATIVISMO Y ECONOMÍA SOCIALAviso Oficial</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337629/20260121</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>primera</t>
+          <t>tercera</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2056,94 +2378,114 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINAAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337597/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 32/2025</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407023/20260121</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>primera</t>
+          <t>tercera</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Servicios Privados (Salud/Educación)</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>90</v>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Legal(30) + Discrec(30) + Certeza Alta(30) = 90%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Salario de los Trabajadores</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Empresas de Salud/Educación</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Autorización de aumento por encima de inflación</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>SUPERINTENDENCIA DE SERVICIOS DE SALUDAviso Oficial</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/primera/337598/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BANCO CENTRAL DE LA REPÚBLICA ARGENTINALicitación Pública 58/25</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407024/20260121</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2156,44 +2498,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>MINISTERIO DE SEGURIDAD NACIONALLicitación Pública 0028/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406958/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>AGUA Y SANEAMIENTOS ARGENTINOS S.A.Licitación Pública Nacional 64765/2026</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407025/20260121</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2206,44 +2558,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>COMISIÓN NACIONAL DE ENERGÍA ATÓMICALicitación Pública 0051/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406959/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0013/2026</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407026/20260121</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2256,44 +2618,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1223/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406960/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>GENDARMERÍA NACIONAL ARGENTINALicitación Pública 69/2025</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407027/20260121</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2306,44 +2678,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HONORABLE CÁMARA DE DIPUTADOS DE LA NACIÓNLicitación Pública 21/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406961/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MINISTERIO DE SEGURIDAD NACIONALLicitación Pública 0028/2025</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407028/20260121</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2356,44 +2738,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>COMISIÓN NACIONAL DE ENERGÍA ATÓMICALicitación Pública 60/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406962/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0011/2026</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407029/20260121</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2406,44 +2798,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0010/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406963/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0012/2026</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407030/20260121</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2456,44 +2858,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0012/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406964/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0016/2026</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407031/20260121</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2506,44 +2918,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>AGUA Y SANEAMIENTOS ARGENTINOS S.A.Licitación Pública Nacional 65020/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406965/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0018/2026</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407032/20260121</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2556,44 +2978,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>JEFATURA DE GABINETE DE MINISTROSLicitación Pública 33/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406966/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0029/2026</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407033/20260121</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2606,44 +3038,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0001/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406967/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>COMISIÓN NACIONAL DE ENERGÍA ATÓMICALicitación Pública 0051/2025</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407034/20260121</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2656,44 +3098,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>HOSPITAL DE ALTA COMPLEJIDAD EL CALAFATELicitación Pública 0002-2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406968/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>CONSEJO NACIONAL DE INVESTIGACIONES CIENTÍFICAS Y TÉCNICASLicitación 01/2026</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407035/20260121</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2706,44 +3158,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>INSTITUTO NACIONAL DE INVESTIGACIÓN Y DESARROLLO PESQUEROConcurso Público 0009/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406969/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1147/2025</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407036/20260121</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2756,44 +3218,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0099/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406970/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1223/2025</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407037/20260121</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2806,44 +3278,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0104/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406971/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>CASA DE MONEDA SOCIEDAD ANÓNIMA UNIPERSONALLicitación Pública 966</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407038/20260121</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2856,44 +3338,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1214/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406972/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>CASA DE MONEDA SOCIEDAD ANÓNIMA UNIPERSONALLicitación Pública 971/2026</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407039/20260121</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2906,44 +3398,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>0</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1215/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406973/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CASA DE MONEDA SOCIEDAD ANÓNIMA UNIPERSONALLicitación Pública 972</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407040/20260121</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2956,44 +3458,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>0</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1226/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406974/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0010/2026</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407041/20260121</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3006,44 +3518,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0011/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406975/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0012/2026</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407042/20260121</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3056,44 +3578,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>0</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>UNIVERSIDAD NACIONAL DE LA PAMPALicitación Pública 01/2026</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406976/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>AGUA Y SANEAMIENTOS ARGENTINOS S.A.Licitación Pública Nacional 64534/2026</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407043/20260121</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3106,748 +3638,897 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0015/2026</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407044/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0001/2026</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407045/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>HOSPITAL DE ALTA COMPLEJIDAD EL CALAFATELicitación Pública 0002-2026</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407046/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0099/2025</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407047/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>POLICÍA FEDERAL ARGENTINALicitación Pública 0104/2025</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406997/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0955/2025</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406998/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1226/2025</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406999/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>BELGRANO CARGAS Y LOGÍSTICA S.A.Concurso Privado BCYL0011/2026</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407000/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0010/2026</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407001/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0014/2026</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407002/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>UNIVERSIDAD NACIONAL DE LA PAMPALicitación Pública 01/2026</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407003/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>UNIVERSIDAD DE BUENOS AIRES - 
 DIRECCIÓN GENERAL DE PLANIFICACIÓN Y GESTIÓN DE CONTRATACIONESLicitación Pública 01/2026</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406977/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407004/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>tercera</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>UNIVERSIDAD NACIONAL DE LA PLATA - 
 SECRETARÍA DE PLANEAMIENTO, OBRAS Y SERVICIOSLicitación Pública 01/26</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406978/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407005/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>tercera</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>PROVINCIA DEL CHUBUT  - MUNICIPALIDAD DE RÍO MAYOLicitación Pública 01/2026 – M.R.M.</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406979/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407006/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>tercera</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - 
 DIRECCIÓN REGIONAL ADUANERA NORESTELicitación Pública 04/2026</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406980/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>ADMINISTRACIÓN NACIONAL DE LA SEGURIDAD SOCIALLicitación Pública PROCESO COMPR.AR 63-0074-LPU25</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406981/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>MINISTERIO DE ECONOMÍALicitación Pública 0026/2025</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406982/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>SECRETARÍA LEGAL Y TÉCNICALicitación Pública 3/2025</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406983/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>COMISIÓN NACIONAL DE ENERGÍA ATÓMICALicitación Pública 53/2025</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406984/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>AGUA Y SANEAMIENTOS ARGENTINOS S.A.Licitación Pública Nacional 64888/2026</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406985/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>AGUA Y SANEAMIENTOS ARGENTINOS S.A.Licitación Pública Nacional 64950/2026</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406986/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>GOBIERNO DE LA PROVINCIA DE RÍO NEGRO - SECRETARÍA DE HIDROCARBUROS - SECRETARÍA DE ESTADO DE ENERGÍA Y AMBIENTEConcurso Público Nacional e Internacional 02/25</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406987/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>AGENCIA DE ADMINISTRACIÓN DE BIENES DEL ESTADOSubasta Pública 392-0091-SPU25</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406988/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>AGENCIA DE ADMINISTRACIÓN DE BIENES DEL ESTADOSubasta Pública 392-0094-SPU25</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406989/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - 
-DIRECCIÓN REGIONAL ADUANERA CENTRALLicitación Pública 20/25</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406990/20260120</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>20260120</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>tercera</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>No identificado</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>No detectado</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>COMISIÓN NACIONAL DE ENERGÍA ATÓMICAConcurso Público 0004/2025</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406991/20260120</t>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407007/20260121</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3860,44 +4541,55 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>SERVICIO PENITENCIARIO FEDERALLicitación Pública 0025/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406992/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO  - 
+DIRECCIÓN REGIONAL ADUANERA AUSTRALLicitación Pública 28/25</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407008/20260121</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3910,44 +4602,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1170/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406993/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0009/2026</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407009/20260121</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3960,44 +4662,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>0</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1172/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406994/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0017/2026</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407010/20260121</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4010,44 +4722,54 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>EJÉRCITO ARGENTINOLicitación Pública 1191/2025</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406995/20260120</t>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0028/2026</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407011/20260121</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20260120</t>
+          <t>20260121</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4060,38 +4782,649 @@
           <t>No identificado</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>No aplica</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Indeterminado</t>
-        </is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Indeterminado</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No detectado</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0030/2026</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407012/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 0031/2026</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407013/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO - 
-DIRECCIÓN REGIONAL SURLicitación Pública 14/25</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2406996/20260120</t>
+DIRECCIÓN REGIONAL ADUANERA AUSTRALLicitación Pública 01/26</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407014/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>NUCLEOELÉCTRICA ARGENTINA S.A.Licitación Pública</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407015/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DIRECCIÓN DE OBRA SOCIAL DEL SERVICIO PENITENCIARIO FEDERALSelección por Concurso SC-7-2025</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407016/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>GOBIERNO DE LA PROVINCIA DE RÍO NEGRO - SECRETARÍA DE HIDROCARBUROS - SECRETARÍA DE ESTADO DE ENERGÍA Y AMBIENTEConcurso Público Nacional e Internacional 02/25</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407017/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE SERVICIOS SOCIALES PARA JUBILADOS Y PENSIONADOSSubasta On Line con Base 3813</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407018/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1082/2025</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407019/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1087/2025</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407020/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No identificado</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No aplica</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>EJÉRCITO ARGENTINOLicitación Pública 1089/2025</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407021/20260121</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>20260121</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>tercera</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Obra Pública / Contratos</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>contratación directa</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>85</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Leg(30)+Dis(30)+Cert(25)</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Contribuyentes (Impuestos Futuros)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Empresas Contratistas</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Sobreprecios o continuación ineficiente</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>AGENCIA DE RECAUDACIÓN Y CONTROL ADUANERO  - 
+DIRECCIÓN REGIONAL ADUANERA NORESTEContratación Directa 82/25</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://www.boletinoficial.gob.ar/detalleAviso/tercera/2407022/20260121</t>
         </is>
       </c>
     </row>
@@ -4106,7 +5439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,139 +5447,326 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="120" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Columna</t>
+          <t>Fenómeno / Causa</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Descripción</t>
+          <t>Origen (Víctima)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Destino (Beneficiario)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mecanismo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Certeza Teórica</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>Privatización / Concesión</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de publicación del Boletín Oficial analizado.</t>
+          <t>Patrimonio Estatal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Empresas Privadas (Rent Seeking)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Subvaluación de activos o canon bajo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alta (30 pts)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>seccion</t>
+          <t>Obra Pública / Contratos</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sección del BORA (1ra = Legislación, 3ra = Contrataciones).</t>
+          <t>Contribuyentes (Impuestos Futuros)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Empresas Contratistas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sobreprecios o continuación ineficiente</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Media-Alta (25 pts)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tipo_decision</t>
+          <t>Tarifas Servicios Públicos</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clasificación teórica según las 7 decisiones de 'Great Corruption': 1. Privatización/Concesión, 2. Obra Pública, 3. Tarifas, 4. Devaluación, 5. Servicios Privados, 6. Jubilaciones, 7. Traslado Impositivo.</t>
+          <t>Usuarios / Población</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Empresas Concesionarias</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aumento de tarifa o subsidio cruzado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Muy Alta (40 pts)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>indice_total</t>
+          <t>Compensación por Devaluación</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Intensidad del fenómeno (0-100%). Suma de Legalidad + Discrecionalidad + Certeza.</t>
+          <t>Tesoro Nacional (Población)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Empresas Endeudadas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Licuación de pasivos privados</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alta (30 pts)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elaboracion_indice</t>
+          <t>Servicios Privados (Salud/Educación)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fórmula desglosada del cálculo del índice. Ver artículo: https://www.emerald.com/jfc/article-abstract/28/2/580/224032/Great-corruption-theory-of-corrupt-phenomena?redirectedFrom=fulltext</t>
+          <t>Salario de los Trabajadores</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Empresas de Salud/Educación</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Autorización de aumento por encima de inflación</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alta (30 pts)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>origen</t>
+          <t>Jubilaciones / Pensiones</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sector que financia o pierde ingresos en la transferencia (Víctima económica).</t>
+          <t>Jubilados (Ingreso Diferido)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Estado (Tesoro)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fórmula de movilidad a la baja / Inflación</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Muy Alta (40 pts)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>destino</t>
+          <t>Traslado Impositivo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sector que recibe la renta o beneficio (Beneficiario / Rent Seeking).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>mecanismo</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Herramienta técnica/legal usada para la transferencia (ej. Subsidio, Tarifa).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+          <t>Consumidor Final</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Estado / Empresas</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Traslado de carga fiscal (Doble imposición)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Muy Alta (40 pts)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Columna</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fecha</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Fecha publicación B.O.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tipo_decision</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clasificación teórica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evidencia_xai</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[XAI] Palabra clave exacta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>auditoria_estado</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[Control] Alerta de revisión humana.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>indice_total</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Intensidad (0-100%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>detalle</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Resumen extraído de la norma en el Boletín Oficial.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Enlace a la fuente oficial.</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Texto de la norma.</t>
         </is>
       </c>
     </row>
